--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040C0E33-3917-43AD-AF4C-984EBD82D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C102C93-3077-4B4E-853B-7261DFA8C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,9 +900,6 @@
     <t>bist – ist – ist – sind – seid – sind</t>
   </si>
   <si>
-    <t>C:\Users\sagar\Downloads\as2.10.5.jpg</t>
-  </si>
-  <si>
     <t>arbeiten – arbeitest – arbeitet – arbeitest – arbeitet – arbeiten</t>
   </si>
   <si>
@@ -912,9 +909,6 @@
     <t>arbeite – arbeitest – arbeitet – arbeiten – arbeitet – arbeiten</t>
   </si>
   <si>
-    <t>C:\Users\sagar\Downloads\as2.10.6.jpg</t>
-  </si>
-  <si>
     <t>lesen – liest – liest – lesen – lest – lesen</t>
   </si>
   <si>
@@ -1362,25 +1356,31 @@
     <t>straight</t>
   </si>
   <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\as2.10.3.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\as2.10.4.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\a4.png</t>
-  </si>
-  <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\a3.png</t>
-  </si>
-  <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\a2.png</t>
-  </si>
-  <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\a1.png</t>
-  </si>
-  <si>
-    <t>C:\Users\sagar\OneDrive\Documents\GermanQuiz\GermanQuiz\images\Picture1.jpg</t>
+    <t>images/a1.png</t>
+  </si>
+  <si>
+    <t>images/a2.png</t>
+  </si>
+  <si>
+    <t>images/a3.png</t>
+  </si>
+  <si>
+    <t>images/a4.png</t>
+  </si>
+  <si>
+    <t>images/Picture1.jpg</t>
+  </si>
+  <si>
+    <t>images/as2.10.3.jpg</t>
+  </si>
+  <si>
+    <t>images/as2.10.4.jpg</t>
+  </si>
+  <si>
+    <t>images/as2.10.5.jpg</t>
+  </si>
+  <si>
+    <t>images/as2.10.6.jpg</t>
   </si>
 </sst>
 </file>
@@ -1745,8 +1745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D76" t="s">
         <v>257</v>
@@ -3530,7 +3530,7 @@
         <v>262</v>
       </c>
       <c r="C78" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H78" t="s">
         <v>265</v>
@@ -3544,7 +3544,7 @@
         <v>262</v>
       </c>
       <c r="C79" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H79" t="s">
         <v>267</v>
@@ -3558,7 +3558,7 @@
         <v>262</v>
       </c>
       <c r="C80" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H80" t="s">
         <v>268</v>
@@ -3572,7 +3572,7 @@
         <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H81" t="s">
         <v>269</v>
@@ -3663,7 +3663,7 @@
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="D89" t="s">
         <v>285</v>
@@ -3686,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D90" t="s">
         <v>288</v>
@@ -3709,16 +3709,16 @@
         <v>10</v>
       </c>
       <c r="C91" t="s">
+        <v>450</v>
+      </c>
+      <c r="D91" t="s">
         <v>291</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>292</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>293</v>
-      </c>
-      <c r="F91" t="s">
-        <v>294</v>
       </c>
       <c r="H91" t="s">
         <v>21</v>
@@ -3732,16 +3732,16 @@
         <v>10</v>
       </c>
       <c r="C92" t="s">
+        <v>451</v>
+      </c>
+      <c r="D92" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" t="s">
         <v>295</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>296</v>
-      </c>
-      <c r="E92" t="s">
-        <v>297</v>
-      </c>
-      <c r="F92" t="s">
-        <v>298</v>
       </c>
       <c r="H92" t="s">
         <v>15</v>
@@ -3749,22 +3749,22 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>298</v>
+      </c>
+      <c r="E93" t="s">
         <v>299</v>
       </c>
-      <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>300</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>301</v>
-      </c>
-      <c r="F93" t="s">
-        <v>302</v>
-      </c>
-      <c r="G93" t="s">
-        <v>303</v>
       </c>
       <c r="H93" t="s">
         <v>41</v>
@@ -3772,22 +3772,22 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>302</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>303</v>
+      </c>
+      <c r="E94" t="s">
         <v>304</v>
       </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>305</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>306</v>
-      </c>
-      <c r="F94" t="s">
-        <v>307</v>
-      </c>
-      <c r="G94" t="s">
-        <v>308</v>
       </c>
       <c r="H94" t="s">
         <v>15</v>
@@ -3795,22 +3795,22 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>307</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>308</v>
+      </c>
+      <c r="E95" t="s">
         <v>309</v>
       </c>
-      <c r="B95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>310</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G95" t="s">
         <v>311</v>
-      </c>
-      <c r="F95" t="s">
-        <v>312</v>
-      </c>
-      <c r="G95" t="s">
-        <v>313</v>
       </c>
       <c r="H95" t="s">
         <v>41</v>
@@ -3818,22 +3818,22 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>313</v>
+      </c>
+      <c r="E96" t="s">
         <v>314</v>
       </c>
-      <c r="B96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>315</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>316</v>
-      </c>
-      <c r="F96" t="s">
-        <v>317</v>
-      </c>
-      <c r="G96" t="s">
-        <v>318</v>
       </c>
       <c r="H96" t="s">
         <v>15</v>
@@ -3841,7 +3841,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3850,13 +3850,13 @@
         <v>68</v>
       </c>
       <c r="E97" t="s">
+        <v>318</v>
+      </c>
+      <c r="F97" t="s">
+        <v>319</v>
+      </c>
+      <c r="G97" t="s">
         <v>320</v>
-      </c>
-      <c r="F97" t="s">
-        <v>321</v>
-      </c>
-      <c r="G97" t="s">
-        <v>322</v>
       </c>
       <c r="H97" t="s">
         <v>41</v>
@@ -3864,22 +3864,22 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>321</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>322</v>
+      </c>
+      <c r="E98" t="s">
         <v>323</v>
       </c>
-      <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="F98" t="s">
         <v>324</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>325</v>
-      </c>
-      <c r="F98" t="s">
-        <v>326</v>
-      </c>
-      <c r="G98" t="s">
-        <v>327</v>
       </c>
       <c r="H98" t="s">
         <v>49</v>
@@ -3887,22 +3887,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>327</v>
+      </c>
+      <c r="E99" t="s">
         <v>328</v>
       </c>
-      <c r="B99" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="F99" t="s">
         <v>329</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>330</v>
-      </c>
-      <c r="F99" t="s">
-        <v>331</v>
-      </c>
-      <c r="G99" t="s">
-        <v>332</v>
       </c>
       <c r="H99" t="s">
         <v>21</v>
@@ -3910,22 +3910,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E100" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H100" t="s">
         <v>41</v>
@@ -3933,22 +3933,22 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" t="s">
         <v>324</v>
       </c>
-      <c r="E101" t="s">
-        <v>326</v>
-      </c>
       <c r="F101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G101" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H101" t="s">
         <v>49</v>
@@ -3956,22 +3956,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E102" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F102" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G102" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H102" t="s">
         <v>15</v>
@@ -3979,22 +3979,22 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E103" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F103" t="s">
+        <v>318</v>
+      </c>
+      <c r="G103" t="s">
         <v>320</v>
-      </c>
-      <c r="G103" t="s">
-        <v>322</v>
       </c>
       <c r="H103" t="s">
         <v>49</v>
@@ -4002,22 +4002,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" t="s">
         <v>324</v>
       </c>
-      <c r="E104" t="s">
-        <v>326</v>
-      </c>
       <c r="F104" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G104" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H104" t="s">
         <v>15</v>
@@ -4025,22 +4025,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E105" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F105" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G105" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H105" t="s">
         <v>41</v>
@@ -4048,22 +4048,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E106" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F106" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H106" t="s">
         <v>21</v>
@@ -4071,22 +4071,22 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E107" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F107" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G107" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H107" t="s">
         <v>49</v>
@@ -4094,22 +4094,22 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E108" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F108" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G108" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H108" t="s">
         <v>49</v>
@@ -4117,22 +4117,22 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E109" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G109" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H109" t="s">
         <v>15</v>
@@ -4140,22 +4140,22 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E110" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F110" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H110" t="s">
         <v>49</v>
@@ -4163,22 +4163,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E111" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G111" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H111" t="s">
         <v>21</v>
@@ -4186,22 +4186,22 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F112" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G112" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H112" t="s">
         <v>21</v>
@@ -4209,22 +4209,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E113" t="s">
         <v>68</v>
       </c>
       <c r="F113" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G113" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H113" t="s">
         <v>21</v>
@@ -4232,22 +4232,22 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F114" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G114" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H114" t="s">
         <v>41</v>
@@ -4255,22 +4255,22 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E115" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F115" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G115" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H115" t="s">
         <v>49</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -4287,13 +4287,13 @@
         <v>68</v>
       </c>
       <c r="E116" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F116" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G116" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H116" t="s">
         <v>21</v>
@@ -4301,22 +4301,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="D117" t="s">
+        <v>323</v>
+      </c>
+      <c r="E117" t="s">
+        <v>348</v>
+      </c>
+      <c r="F117" t="s">
+        <v>354</v>
+      </c>
+      <c r="G117" t="s">
         <v>325</v>
-      </c>
-      <c r="E117" t="s">
-        <v>350</v>
-      </c>
-      <c r="F117" t="s">
-        <v>356</v>
-      </c>
-      <c r="G117" t="s">
-        <v>327</v>
       </c>
       <c r="H117" t="s">
         <v>15</v>
@@ -4324,22 +4324,22 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E118" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F118" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G118" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H118" t="s">
         <v>21</v>
@@ -4347,22 +4347,22 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E119" t="s">
         <v>68</v>
       </c>
       <c r="F119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G119" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H119" t="s">
         <v>41</v>
@@ -4370,22 +4370,22 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
+        <v>323</v>
+      </c>
+      <c r="E120" t="s">
         <v>325</v>
       </c>
-      <c r="E120" t="s">
-        <v>327</v>
-      </c>
       <c r="F120" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G120" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H120" t="s">
         <v>21</v>
@@ -4393,22 +4393,22 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="D121" t="s">
+        <v>327</v>
+      </c>
+      <c r="E121" t="s">
+        <v>356</v>
+      </c>
+      <c r="F121" t="s">
         <v>329</v>
       </c>
-      <c r="E121" t="s">
-        <v>358</v>
-      </c>
-      <c r="F121" t="s">
-        <v>331</v>
-      </c>
       <c r="G121" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H121" t="s">
         <v>15</v>
@@ -4416,22 +4416,22 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>366</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" t="s">
         <v>368</v>
       </c>
-      <c r="B122" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>369</v>
       </c>
-      <c r="E122" t="s">
+      <c r="G122" t="s">
         <v>370</v>
-      </c>
-      <c r="F122" t="s">
-        <v>371</v>
-      </c>
-      <c r="G122" t="s">
-        <v>372</v>
       </c>
       <c r="H122" t="s">
         <v>15</v>
@@ -4439,22 +4439,22 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>372</v>
+      </c>
+      <c r="E123" t="s">
         <v>373</v>
       </c>
-      <c r="B123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>374</v>
       </c>
-      <c r="E123" t="s">
+      <c r="G123" t="s">
         <v>375</v>
-      </c>
-      <c r="F123" t="s">
-        <v>376</v>
-      </c>
-      <c r="G123" t="s">
-        <v>377</v>
       </c>
       <c r="H123" t="s">
         <v>41</v>
@@ -4462,22 +4462,22 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>376</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>377</v>
+      </c>
+      <c r="E124" t="s">
+        <v>372</v>
+      </c>
+      <c r="F124" t="s">
+        <v>373</v>
+      </c>
+      <c r="G124" t="s">
         <v>378</v>
-      </c>
-      <c r="B124" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" t="s">
-        <v>379</v>
-      </c>
-      <c r="E124" t="s">
-        <v>374</v>
-      </c>
-      <c r="F124" t="s">
-        <v>375</v>
-      </c>
-      <c r="G124" t="s">
-        <v>380</v>
       </c>
       <c r="H124" t="s">
         <v>21</v>
@@ -4485,22 +4485,22 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>379</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>380</v>
+      </c>
+      <c r="E125" t="s">
         <v>381</v>
       </c>
-      <c r="B125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>382</v>
       </c>
-      <c r="E125" t="s">
+      <c r="G125" t="s">
         <v>383</v>
-      </c>
-      <c r="F125" t="s">
-        <v>384</v>
-      </c>
-      <c r="G125" t="s">
-        <v>385</v>
       </c>
       <c r="H125" t="s">
         <v>41</v>
@@ -4508,22 +4508,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>384</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>385</v>
+      </c>
+      <c r="E126" t="s">
         <v>386</v>
       </c>
-      <c r="B126" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="F126" t="s">
         <v>387</v>
       </c>
-      <c r="E126" t="s">
+      <c r="G126" t="s">
         <v>388</v>
-      </c>
-      <c r="F126" t="s">
-        <v>389</v>
-      </c>
-      <c r="G126" t="s">
-        <v>390</v>
       </c>
       <c r="H126" t="s">
         <v>21</v>
@@ -4531,22 +4531,22 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>389</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>390</v>
+      </c>
+      <c r="E127" t="s">
+        <v>375</v>
+      </c>
+      <c r="F127" t="s">
+        <v>372</v>
+      </c>
+      <c r="G127" t="s">
         <v>391</v>
-      </c>
-      <c r="B127" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" t="s">
-        <v>392</v>
-      </c>
-      <c r="E127" t="s">
-        <v>377</v>
-      </c>
-      <c r="F127" t="s">
-        <v>374</v>
-      </c>
-      <c r="G127" t="s">
-        <v>393</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -4554,22 +4554,22 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>392</v>
+      </c>
+      <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>393</v>
+      </c>
+      <c r="E128" t="s">
         <v>394</v>
       </c>
-      <c r="B128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>395</v>
       </c>
-      <c r="E128" t="s">
+      <c r="G128" t="s">
         <v>396</v>
-      </c>
-      <c r="F128" t="s">
-        <v>397</v>
-      </c>
-      <c r="G128" t="s">
-        <v>398</v>
       </c>
       <c r="H128" t="s">
         <v>41</v>
@@ -4577,22 +4577,22 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>397</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>398</v>
+      </c>
+      <c r="E129" t="s">
         <v>399</v>
       </c>
-      <c r="B129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
         <v>400</v>
       </c>
-      <c r="E129" t="s">
+      <c r="G129" t="s">
         <v>401</v>
-      </c>
-      <c r="F129" t="s">
-        <v>402</v>
-      </c>
-      <c r="G129" t="s">
-        <v>403</v>
       </c>
       <c r="H129" t="s">
         <v>15</v>
@@ -4600,22 +4600,22 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>402</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>403</v>
+      </c>
+      <c r="E130" t="s">
         <v>404</v>
       </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>405</v>
       </c>
-      <c r="E130" t="s">
-        <v>406</v>
-      </c>
-      <c r="F130" t="s">
-        <v>407</v>
-      </c>
       <c r="G130" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H130" t="s">
         <v>41</v>
@@ -4623,22 +4623,22 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E131" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F131" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G131" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H131" t="s">
         <v>15</v>
@@ -4646,19 +4646,19 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>408</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" t="s">
         <v>410</v>
       </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>411</v>
-      </c>
-      <c r="E132" t="s">
-        <v>412</v>
-      </c>
-      <c r="F132" t="s">
-        <v>413</v>
       </c>
       <c r="H132" t="s">
         <v>15</v>
@@ -4666,19 +4666,19 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E133" t="s">
+        <v>409</v>
+      </c>
+      <c r="F133" t="s">
         <v>411</v>
-      </c>
-      <c r="F133" t="s">
-        <v>413</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -4686,19 +4686,19 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
       </c>
       <c r="D134" t="s">
+        <v>409</v>
+      </c>
+      <c r="E134" t="s">
         <v>411</v>
       </c>
-      <c r="E134" t="s">
-        <v>413</v>
-      </c>
       <c r="F134" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -4706,19 +4706,19 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>416</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>417</v>
+      </c>
+      <c r="E135" t="s">
         <v>418</v>
       </c>
-      <c r="B135" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>419</v>
-      </c>
-      <c r="E135" t="s">
-        <v>420</v>
-      </c>
-      <c r="F135" t="s">
-        <v>421</v>
       </c>
       <c r="H135" t="s">
         <v>41</v>
@@ -4726,19 +4726,19 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>420</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>421</v>
+      </c>
+      <c r="E136" t="s">
         <v>422</v>
       </c>
-      <c r="B136" t="s">
-        <v>10</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>423</v>
-      </c>
-      <c r="E136" t="s">
-        <v>424</v>
-      </c>
-      <c r="F136" t="s">
-        <v>425</v>
       </c>
       <c r="H136" t="s">
         <v>15</v>
@@ -4746,19 +4746,19 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
+        <v>424</v>
+      </c>
+      <c r="B137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>425</v>
+      </c>
+      <c r="E137" t="s">
         <v>426</v>
       </c>
-      <c r="B137" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="F137" t="s">
         <v>427</v>
-      </c>
-      <c r="E137" t="s">
-        <v>428</v>
-      </c>
-      <c r="F137" t="s">
-        <v>429</v>
       </c>
       <c r="H137" t="s">
         <v>21</v>
@@ -4766,19 +4766,19 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>428</v>
+      </c>
+      <c r="B138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>413</v>
+      </c>
+      <c r="E138" t="s">
+        <v>429</v>
+      </c>
+      <c r="F138" t="s">
         <v>430</v>
-      </c>
-      <c r="B138" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" t="s">
-        <v>415</v>
-      </c>
-      <c r="E138" t="s">
-        <v>431</v>
-      </c>
-      <c r="F138" t="s">
-        <v>432</v>
       </c>
       <c r="H138" t="s">
         <v>15</v>
@@ -4786,19 +4786,19 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
+        <v>431</v>
+      </c>
+      <c r="B139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>432</v>
+      </c>
+      <c r="E139" t="s">
         <v>433</v>
       </c>
-      <c r="B139" t="s">
-        <v>10</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>434</v>
-      </c>
-      <c r="E139" t="s">
-        <v>435</v>
-      </c>
-      <c r="F139" t="s">
-        <v>436</v>
       </c>
       <c r="H139" t="s">
         <v>41</v>
@@ -4806,19 +4806,19 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
+        <v>435</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>436</v>
+      </c>
+      <c r="E140" t="s">
         <v>437</v>
       </c>
-      <c r="B140" t="s">
-        <v>10</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
         <v>438</v>
-      </c>
-      <c r="E140" t="s">
-        <v>439</v>
-      </c>
-      <c r="F140" t="s">
-        <v>440</v>
       </c>
       <c r="H140" t="s">
         <v>41</v>
@@ -4826,19 +4826,19 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
+        <v>439</v>
+      </c>
+      <c r="D141" t="s">
+        <v>440</v>
+      </c>
+      <c r="E141" t="s">
         <v>441</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>442</v>
       </c>
-      <c r="E141" t="s">
-        <v>443</v>
-      </c>
-      <c r="F141" t="s">
-        <v>444</v>
-      </c>
       <c r="G141" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H141" t="s">
         <v>15</v>
